--- a/NewPCB/opsx_x/Pos_rev1/opsx_x-all-pos_modify.xlsx
+++ b/NewPCB/opsx_x/Pos_rev1/opsx_x-all-pos_modify.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develope\OPSX\NewPCB\opsx_x\Pos_rev1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EBB4242-F94D-4BB4-91AA-6EDDECCD0C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF540892-E2CC-42FD-AE32-46D60F52A39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="opsx_x-all-pos" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -581,7 +581,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -764,6 +764,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,11 +1018,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1373,11 +1382,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1455,72 +1464,72 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>11.6332</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>15.950799999999999</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>77.599999999999994</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>20.5</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>90</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>71.577200000000005</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>20.017199999999999</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>90</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3088,26 +3097,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="75" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="2">
         <v>44.6</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="2">
         <v>15.6</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="2">
         <v>0</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="2" t="s">
         <v>22</v>
       </c>
     </row>
